--- a/atomica/library/sir_framework.xlsx
+++ b/atomica/library/sir_framework.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C3F946-E95D-4B0F-881A-04CFCF3108EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FBB84E-2429-4F68-B27C-D0A8149FC406}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="About" sheetId="7" r:id="rId1"/>
-    <sheet name="Databook Pages" sheetId="5" r:id="rId2"/>
-    <sheet name="Compartments" sheetId="1" r:id="rId3"/>
-    <sheet name="Transitions" sheetId="2" r:id="rId4"/>
-    <sheet name="Characteristics" sheetId="3" r:id="rId5"/>
-    <sheet name="Parameters" sheetId="4" r:id="rId6"/>
-    <sheet name="Cascades" sheetId="6" r:id="rId7"/>
+    <sheet name="About" sheetId="1" r:id="rId1"/>
+    <sheet name="Databook Pages" sheetId="2" r:id="rId2"/>
+    <sheet name="Compartments" sheetId="3" r:id="rId3"/>
+    <sheet name="Transitions" sheetId="4" r:id="rId4"/>
+    <sheet name="Characteristics" sheetId="5" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="6" r:id="rId6"/>
+    <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -35,17 +35,18 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the 'code name' of a custom databook sheet.
 Normally, when constructing a databook, data-input sections for
@@ -63,10 +64,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the title of a custom databook sheet.
 Normally, when constructing a databook, data-input sections for
@@ -84,17 +86,18 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the 'code name' of a compartment within a
 population cascade, a state that an entity can exist in that is
@@ -116,10 +119,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the 'display name' of a compartment within a
 population cascade, a state that an entity can exist in that is
@@ -142,10 +146,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for tagging a compartment as an abstract 'source' state,
 from which entities can flow into the rest of a network.
@@ -168,10 +173,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for tagging a compartment as an abstract 'sink' state,
 into which entities can flow from the rest of a network.
@@ -193,10 +199,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for tagging a compartment as an abstract 'junction'
 state, commonly used to control the aggregation and disaggregation of
@@ -221,10 +228,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column currently denotes whether a databook should request
 values from the user for the historical size of this compartment.
@@ -236,10 +244,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column determines how important user-provided values for this
 compartment are to setting up the initial state of a model.
@@ -267,17 +276,18 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the 'code name' of a cascade characteristic,
 which is a set of compartments or, recursively, other characteristics.
@@ -299,10 +309,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the 'display name' of a cascade characteristic,
 which is a set of compartments or, recursively, other characteristics.
@@ -325,10 +336,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column currently denotes whether a databook should request
 historical values from the user for this characteristic.
@@ -340,10 +352,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column determines how important user-provided values for this
 characteristic are to setting up the initial state of a model.
@@ -367,10 +380,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column, and any that immediately follow without a specified
 header, is for the 'components' of a cascade characteristic.
@@ -394,10 +408,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column defines a 'denominator' attribute for a 'charac' item.</t>
         </r>
@@ -407,10 +422,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column defines a 'default_value' attribute for a 'charac' item.</t>
         </r>
@@ -423,17 +439,18 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the 'code name' of a cascade parameter.
 The base case is referred to as a transition parameter, referring to
@@ -452,10 +469,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the 'display name' of a cascade parameter.
 The base case is referred to as a transition parameter, referring to
@@ -475,10 +493,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column defines a 'format' attribute for a 'par' item.</t>
         </r>
@@ -488,10 +507,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column defines a 'datapage_order' attribute for a 'par' item.</t>
         </r>
@@ -501,10 +521,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column defines a 'default_value' attribute for a 'par' item.</t>
         </r>
@@ -514,10 +535,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column defines a 'function' attribute for a 'par' item.</t>
         </r>
@@ -530,6 +552,36 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>SIR</t>
+  </si>
+  <si>
+    <t>The SIR model</t>
+  </si>
+  <si>
+    <t>Datasheet Code Name</t>
+  </si>
+  <si>
+    <t>Datasheet Title</t>
+  </si>
+  <si>
+    <t>state_variables</t>
+  </si>
+  <si>
+    <t>State Variables</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
     <t>Code Name</t>
   </si>
   <si>
@@ -545,186 +597,171 @@
     <t>Is Junction</t>
   </si>
   <si>
+    <t>Databook Page</t>
+  </si>
+  <si>
+    <t>Databook Order</t>
+  </si>
+  <si>
+    <t>Setup Weight</t>
+  </si>
+  <si>
+    <t>sus</t>
+  </si>
+  <si>
+    <t>Susceptible</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>Infected</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>foi</t>
+  </si>
+  <si>
+    <t>susdeath</t>
+  </si>
+  <si>
+    <t>recrate</t>
+  </si>
+  <si>
+    <t>susdeath,infdeath</t>
+  </si>
+  <si>
     <t>Components</t>
   </si>
   <si>
     <t>Denominator</t>
   </si>
   <si>
-    <t>Databook Order</t>
-  </si>
-  <si>
     <t>Default Value</t>
   </si>
   <si>
+    <t>ch_all</t>
+  </si>
+  <si>
+    <t>Total number of entities</t>
+  </si>
+  <si>
+    <t>sus, inf, rec</t>
+  </si>
+  <si>
+    <t>ch_prev</t>
+  </si>
+  <si>
+    <t>Prevalence</t>
+  </si>
+  <si>
+    <t>ch_infrec</t>
+  </si>
+  <si>
+    <t>Number ever infected</t>
+  </si>
+  <si>
+    <t>inf, rec</t>
+  </si>
+  <si>
+    <t>ch_infsus</t>
+  </si>
+  <si>
+    <t>Number infected or susceptible</t>
+  </si>
+  <si>
+    <t>inf, sus</t>
+  </si>
+  <si>
+    <t>ch_newinf</t>
+  </si>
+  <si>
+    <t>Number not at risk of death</t>
+  </si>
+  <si>
+    <t>sus, rec</t>
+  </si>
+  <si>
+    <t>ch_propinfrec</t>
+  </si>
+  <si>
+    <t>Proportion ever infected</t>
+  </si>
+  <si>
+    <t>ch_propinfsus</t>
+  </si>
+  <si>
+    <t>Proportion infected or susceptible</t>
+  </si>
+  <si>
+    <t>ch_propnewinf</t>
+  </si>
+  <si>
+    <t>Proportion not at risk of death</t>
+  </si>
+  <si>
     <t>Format</t>
   </si>
   <si>
+    <t>Targetable</t>
+  </si>
+  <si>
     <t>Function</t>
   </si>
   <si>
-    <t>sus</t>
-  </si>
-  <si>
-    <t>Susceptible</t>
-  </si>
-  <si>
-    <t>inf</t>
-  </si>
-  <si>
-    <t>Infected</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>Recovered</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>Dead</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>foi</t>
-  </si>
-  <si>
-    <t>susdeath</t>
-  </si>
-  <si>
-    <t>recrate</t>
+    <t>transpercontact</t>
+  </si>
+  <si>
+    <t>Transmission probability per contact</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>Number of contacts annually</t>
+  </si>
+  <si>
+    <t>Average duration of infections (years)</t>
+  </si>
+  <si>
+    <t>Duration</t>
   </si>
   <si>
     <t>infdeath</t>
   </si>
   <si>
-    <t>ch_all</t>
-  </si>
-  <si>
-    <t>Total number of entities</t>
-  </si>
-  <si>
-    <t>sus, inf, rec</t>
-  </si>
-  <si>
-    <t>ch_infrec</t>
-  </si>
-  <si>
-    <t>Number ever infected</t>
-  </si>
-  <si>
-    <t>inf, rec</t>
-  </si>
-  <si>
-    <t>ch_infsus</t>
-  </si>
-  <si>
-    <t>Number infected or susceptible</t>
-  </si>
-  <si>
-    <t>inf, sus</t>
-  </si>
-  <si>
-    <t>ch_newinf</t>
-  </si>
-  <si>
-    <t>sus, rec</t>
-  </si>
-  <si>
-    <t>ch_propinfrec</t>
-  </si>
-  <si>
-    <t>Proportion ever infected</t>
-  </si>
-  <si>
-    <t>ch_propinfsus</t>
-  </si>
-  <si>
-    <t>Proportion infected or susceptible</t>
-  </si>
-  <si>
-    <t>ch_propnewinf</t>
-  </si>
-  <si>
-    <t>Number not at risk of death</t>
-  </si>
-  <si>
-    <t>Proportion not at risk of death</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>transpercontact</t>
-  </si>
-  <si>
-    <t>Transmission probability per contact</t>
-  </si>
-  <si>
-    <t>contacts</t>
-  </si>
-  <si>
-    <t>Number of contacts annually</t>
+    <t>Death rate for infected people</t>
+  </si>
+  <si>
+    <t>Death rate for susceptible people</t>
   </si>
   <si>
     <t>Force of infection</t>
   </si>
   <si>
-    <t>Average duration of infections (years)</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Death rate for infected people</t>
-  </si>
-  <si>
-    <t>Death rate for susceptible people</t>
-  </si>
-  <si>
-    <t>Setup Weight</t>
-  </si>
-  <si>
-    <t>ch_prev</t>
-  </si>
-  <si>
-    <t>Prevalence</t>
-  </si>
-  <si>
     <t>(1 - (1-ch_prev*transpercontact)**floor(contacts)*(1-ch_prev*transpercontact*(contacts-floor(contacts))))*(1-susdeath)</t>
   </si>
   <si>
-    <t>susdeath,infdeath</t>
-  </si>
-  <si>
-    <t>state_variables</t>
-  </si>
-  <si>
-    <t>Databook Page</t>
-  </si>
-  <si>
-    <t>Datasheet Title</t>
-  </si>
-  <si>
-    <t>Datasheet Code Name</t>
-  </si>
-  <si>
-    <t>parameters</t>
-  </si>
-  <si>
-    <t>State Variables</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
     <t>main</t>
   </si>
   <si>
@@ -732,40 +769,19 @@
   </si>
   <si>
     <t>inf,rec</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>SIR</t>
-  </si>
-  <si>
-    <t>The SIR model</t>
-  </si>
-  <si>
-    <t>Targetable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -802,9 +818,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -813,16 +829,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1173,19 +1183,19 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>69</v>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>71</v>
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1208,26 +1218,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,67 +1294,67 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
@@ -1352,19 +1362,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
@@ -1372,19 +1382,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
@@ -1392,7 +1402,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:E5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1438,10 +1448,10 @@
         <v>sus</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1450,10 +1460,10 @@
         <v>inf</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,7 +1472,7 @@
         <v>rec</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1497,167 +1507,167 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>58</v>
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -1689,152 +1699,152 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3">
         <v>80</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4">
         <v>0.5</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="7" t="s">
-        <v>56</v>
+      <c r="H7" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1858,35 +1868,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>66</v>
+      <c r="A1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/atomica/library/sir_framework.xlsx
+++ b/atomica/library/sir_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FBB84E-2429-4F68-B27C-D0A8149FC406}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B562A85-05B6-44B5-AE90-8DBF8AFCE4C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="1815" windowWidth="23715" windowHeight="18525" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,12 @@
     <sheet name="Parameters" sheetId="6" r:id="rId6"/>
     <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -550,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -769,6 +770,9 @@
   </si>
   <si>
     <t>inf,rec</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -1682,18 +1686,18 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="96.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1794,7 +1798,7 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -1816,7 +1820,7 @@
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -1838,7 +1842,7 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
